--- a/natmiOut/OldD0/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.999766893178</v>
+        <v>4.276772</v>
       </c>
       <c r="H2">
-        <v>3.999766893178</v>
+        <v>12.830316</v>
       </c>
       <c r="I2">
-        <v>0.05775040608209154</v>
+        <v>0.06135676581847978</v>
       </c>
       <c r="J2">
-        <v>0.05775040608209154</v>
+        <v>0.06135676581847978</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>423.0984241097209</v>
+        <v>500.572909790636</v>
       </c>
       <c r="R2">
-        <v>423.0984241097209</v>
+        <v>4505.156188115724</v>
       </c>
       <c r="S2">
-        <v>0.01757214591357247</v>
+        <v>0.01991251399018539</v>
       </c>
       <c r="T2">
-        <v>0.01757214591357247</v>
+        <v>0.01991251399018539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.999766893178</v>
+        <v>4.276772</v>
       </c>
       <c r="H3">
-        <v>3.999766893178</v>
+        <v>12.830316</v>
       </c>
       <c r="I3">
-        <v>0.05775040608209154</v>
+        <v>0.06135676581847978</v>
       </c>
       <c r="J3">
-        <v>0.05775040608209154</v>
+        <v>0.06135676581847978</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>405.9414050278488</v>
+        <v>434.4346594261547</v>
       </c>
       <c r="R3">
-        <v>405.9414050278488</v>
+        <v>3909.911934835392</v>
       </c>
       <c r="S3">
-        <v>0.01685957969831656</v>
+        <v>0.01728157090495143</v>
       </c>
       <c r="T3">
-        <v>0.01685957969831656</v>
+        <v>0.01728157090495143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.999766893178</v>
+        <v>4.276772</v>
       </c>
       <c r="H4">
-        <v>3.999766893178</v>
+        <v>12.830316</v>
       </c>
       <c r="I4">
-        <v>0.05775040608209154</v>
+        <v>0.06135676581847978</v>
       </c>
       <c r="J4">
-        <v>0.05775040608209154</v>
+        <v>0.06135676581847978</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>561.4622714713732</v>
+        <v>607.4161958706987</v>
       </c>
       <c r="R4">
-        <v>561.4622714713732</v>
+        <v>5466.745762836288</v>
       </c>
       <c r="S4">
-        <v>0.02331868047020251</v>
+        <v>0.02416268092334296</v>
       </c>
       <c r="T4">
-        <v>0.02331868047020251</v>
+        <v>0.02416268092334296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.3660632429885</v>
+        <v>36.44531133333333</v>
       </c>
       <c r="H5">
-        <v>36.3660632429885</v>
+        <v>109.335934</v>
       </c>
       <c r="I5">
-        <v>0.5250693292830718</v>
+        <v>0.5228631389891535</v>
       </c>
       <c r="J5">
-        <v>0.5250693292830718</v>
+        <v>0.5228631389891535</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>3846.830192885979</v>
+        <v>4265.725538408947</v>
       </c>
       <c r="R5">
-        <v>3846.830192885979</v>
+        <v>38391.52984568052</v>
       </c>
       <c r="S5">
-        <v>0.1597667530820176</v>
+        <v>0.1696882068535947</v>
       </c>
       <c r="T5">
-        <v>0.1597667530820176</v>
+        <v>0.1696882068535947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.3660632429885</v>
+        <v>36.44531133333333</v>
       </c>
       <c r="H6">
-        <v>36.3660632429885</v>
+        <v>109.335934</v>
       </c>
       <c r="I6">
-        <v>0.5250693292830718</v>
+        <v>0.5228631389891535</v>
       </c>
       <c r="J6">
-        <v>0.5250693292830718</v>
+        <v>0.5228631389891535</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>3690.837791914638</v>
+        <v>3702.116085864956</v>
       </c>
       <c r="R6">
-        <v>3690.837791914638</v>
+        <v>33319.0447727846</v>
       </c>
       <c r="S6">
-        <v>0.1532880685134217</v>
+        <v>0.1472681339945243</v>
       </c>
       <c r="T6">
-        <v>0.1532880685134217</v>
+        <v>0.1472681339945243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.3660632429885</v>
+        <v>36.44531133333333</v>
       </c>
       <c r="H7">
-        <v>36.3660632429885</v>
+        <v>109.335934</v>
       </c>
       <c r="I7">
-        <v>0.5250693292830718</v>
+        <v>0.5228631389891535</v>
       </c>
       <c r="J7">
-        <v>0.5250693292830718</v>
+        <v>0.5228631389891535</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>5104.840611512926</v>
+        <v>5176.210554927079</v>
       </c>
       <c r="R7">
-        <v>5104.840611512926</v>
+        <v>46585.8949943437</v>
       </c>
       <c r="S7">
-        <v>0.2120145076876326</v>
+        <v>0.2059067981410344</v>
       </c>
       <c r="T7">
-        <v>0.2120145076876326</v>
+        <v>0.2059067981410344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.8937156320897</v>
+        <v>28.98126466666666</v>
       </c>
       <c r="H8">
-        <v>28.8937156320897</v>
+        <v>86.943794</v>
       </c>
       <c r="I8">
-        <v>0.4171802646348367</v>
+        <v>0.4157800951923667</v>
       </c>
       <c r="J8">
-        <v>0.4171802646348367</v>
+        <v>0.4157800951923668</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>3056.399504546707</v>
+        <v>3392.09945809734</v>
       </c>
       <c r="R8">
-        <v>3056.399504546707</v>
+        <v>30528.89512287607</v>
       </c>
       <c r="S8">
-        <v>0.1269385443282519</v>
+        <v>0.1349358436990014</v>
       </c>
       <c r="T8">
-        <v>0.1269385443282519</v>
+        <v>0.1349358436990014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.8937156320897</v>
+        <v>28.98126466666666</v>
       </c>
       <c r="H9">
-        <v>28.8937156320897</v>
+        <v>86.943794</v>
       </c>
       <c r="I9">
-        <v>0.4171802646348367</v>
+        <v>0.4157800951923667</v>
       </c>
       <c r="J9">
-        <v>0.4171802646348367</v>
+        <v>0.4157800951923668</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>2932.459774136051</v>
+        <v>2943.917946807214</v>
       </c>
       <c r="R9">
-        <v>2932.459774136051</v>
+        <v>26495.26152126493</v>
       </c>
       <c r="S9">
-        <v>0.1217910729524188</v>
+        <v>0.1171074306164003</v>
       </c>
       <c r="T9">
-        <v>0.1217910729524188</v>
+        <v>0.1171074306164003</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.8937156320897</v>
+        <v>28.98126466666666</v>
       </c>
       <c r="H10">
-        <v>28.8937156320897</v>
+        <v>86.943794</v>
       </c>
       <c r="I10">
-        <v>0.4171802646348367</v>
+        <v>0.4157800951923667</v>
       </c>
       <c r="J10">
-        <v>0.4171802646348367</v>
+        <v>0.4157800951923668</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>4055.919168117144</v>
+        <v>4116.115971426243</v>
       </c>
       <c r="R10">
-        <v>4055.919168117144</v>
+        <v>37045.04374283619</v>
       </c>
       <c r="S10">
-        <v>0.1684506473541659</v>
+        <v>0.1637368208769651</v>
       </c>
       <c r="T10">
-        <v>0.1684506473541659</v>
+        <v>0.1637368208769651</v>
       </c>
     </row>
   </sheetData>
